--- a/config/project/board_120KW/BoardConfig.xlsx
+++ b/config/project/board_120KW/BoardConfig.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\board_120KW\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21500" windowHeight="10350" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="216">
   <si>
     <t>组序号</t>
   </si>
@@ -1179,19 +1184,45 @@
   </si>
   <si>
     <t>升级K64程序</t>
+  </si>
+  <si>
+    <t>codeinput</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT18-8113DCR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT18-8113DCD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT18-8113DCM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT18-8113CPU</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT18-8113PWR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT18-8113DDB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1217,128 +1248,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1351,140 +1266,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1544,265 +1327,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1815,9 +1347,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1851,6 +1383,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1859,24 +1409,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1887,66 +1419,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 3" xfId="49"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2204,31 +1704,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.09166666666667" customWidth="1"/>
-    <col min="2" max="2" width="26.1833333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.725" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.2666666666667" customWidth="1"/>
-    <col min="5" max="5" width="39.3666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.3666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.3666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.2666666666667" customWidth="1"/>
+    <col min="1" max="1" width="6.08984375" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="39.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2251,7 +1751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
         <v>7</v>
@@ -2272,7 +1772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>10</v>
@@ -2293,7 +1793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="14" t="s">
         <v>13</v>
@@ -2314,12 +1814,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="13"/>
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="11">
@@ -2335,10 +1835,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="11">
         <v>5</v>
       </c>
@@ -2352,10 +1852,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="13"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="15"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="11">
         <v>6</v>
       </c>
@@ -2369,7 +1869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="16" t="s">
         <v>23</v>
@@ -2390,12 +1890,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="11">
@@ -2411,10 +1911,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="11">
         <v>9</v>
       </c>
@@ -2428,10 +1928,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="11">
         <v>10</v>
       </c>
@@ -2445,10 +1945,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="11">
         <v>11</v>
       </c>
@@ -2462,10 +1962,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="11">
         <v>12</v>
       </c>
@@ -2479,10 +1979,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="11">
         <v>13</v>
       </c>
@@ -2496,10 +1996,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="11">
         <v>14</v>
       </c>
@@ -2513,10 +2013,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="11">
         <v>15</v>
       </c>
@@ -2530,10 +2030,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="11">
         <v>16</v>
       </c>
@@ -2547,10 +2047,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="11">
         <v>17</v>
       </c>
@@ -2564,10 +2064,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="11">
         <v>18</v>
       </c>
@@ -2581,10 +2081,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="11">
         <v>19</v>
       </c>
@@ -2598,10 +2098,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="11">
         <v>20</v>
       </c>
@@ -2615,10 +2115,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="11">
         <v>21</v>
       </c>
@@ -2632,10 +2132,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="11">
         <v>22</v>
       </c>
@@ -2649,10 +2149,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="11">
         <v>23</v>
       </c>
@@ -2666,12 +2166,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="11">
@@ -2687,10 +2187,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="11">
         <v>25</v>
       </c>
@@ -2704,10 +2204,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="11">
         <v>26</v>
       </c>
@@ -2721,10 +2221,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="11">
         <v>27</v>
       </c>
@@ -2738,10 +2238,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="11">
         <v>28</v>
       </c>
@@ -2755,10 +2255,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="11">
         <v>29</v>
       </c>
@@ -2772,10 +2272,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="11">
         <v>30</v>
       </c>
@@ -2789,10 +2289,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="11">
         <v>31</v>
       </c>
@@ -2806,10 +2306,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="11">
         <v>32</v>
       </c>
@@ -2823,10 +2323,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="11">
         <v>33</v>
       </c>
@@ -2840,10 +2340,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="11">
         <v>34</v>
       </c>
@@ -2857,10 +2357,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="11">
         <v>35</v>
       </c>
@@ -2874,10 +2374,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="11">
         <v>36</v>
       </c>
@@ -2891,10 +2391,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="11">
         <v>37</v>
       </c>
@@ -2908,10 +2408,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="11">
         <v>38</v>
       </c>
@@ -2925,10 +2425,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="11">
         <v>39</v>
       </c>
@@ -2942,12 +2442,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D41" s="11">
@@ -2963,10 +2463,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="11">
         <v>41</v>
       </c>
@@ -2980,10 +2480,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="11">
         <v>42</v>
       </c>
@@ -2997,10 +2497,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="11">
         <v>43</v>
       </c>
@@ -3014,10 +2514,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="11">
         <v>44</v>
       </c>
@@ -3031,10 +2531,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
       <c r="D46" s="11">
         <v>45</v>
       </c>
@@ -3048,10 +2548,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="11">
         <v>46</v>
       </c>
@@ -3065,10 +2565,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="11">
         <v>47</v>
       </c>
@@ -3082,10 +2582,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="11">
         <v>48</v>
       </c>
@@ -3099,10 +2599,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="11">
         <v>49</v>
       </c>
@@ -3116,10 +2616,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="11">
         <v>50</v>
       </c>
@@ -3133,10 +2633,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="11">
         <v>51</v>
       </c>
@@ -3150,10 +2650,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
       <c r="D53" s="11">
         <v>52</v>
       </c>
@@ -3167,10 +2667,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
       <c r="D54" s="11">
         <v>53</v>
       </c>
@@ -3184,10 +2684,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="11">
         <v>54</v>
       </c>
@@ -3201,10 +2701,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="11">
         <v>55</v>
       </c>
@@ -3218,12 +2718,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D57" s="11">
@@ -3239,10 +2739,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="11">
         <v>57</v>
       </c>
@@ -3256,10 +2756,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="11">
         <v>58</v>
       </c>
@@ -3273,10 +2773,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="11">
         <v>59</v>
       </c>
@@ -3290,10 +2790,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
       <c r="D61" s="11">
         <v>60</v>
       </c>
@@ -3307,10 +2807,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
       <c r="D62" s="11">
         <v>61</v>
       </c>
@@ -3324,10 +2824,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="11">
         <v>62</v>
       </c>
@@ -3341,10 +2841,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="11">
         <v>63</v>
       </c>
@@ -3358,10 +2858,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="11">
         <v>64</v>
       </c>
@@ -3375,10 +2875,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="11">
         <v>65</v>
       </c>
@@ -3392,10 +2892,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="11">
         <v>66</v>
       </c>
@@ -3409,10 +2909,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
       <c r="D68" s="11">
         <v>67</v>
       </c>
@@ -3426,10 +2926,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
       <c r="D69" s="11">
         <v>68</v>
       </c>
@@ -3443,10 +2943,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
       <c r="D70" s="11">
         <v>69</v>
       </c>
@@ -3460,10 +2960,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="11">
         <v>70</v>
       </c>
@@ -3477,10 +2977,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="11">
         <v>71</v>
       </c>
@@ -3494,12 +2994,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="23" t="s">
         <v>95</v>
       </c>
       <c r="D73" s="11">
@@ -3515,10 +3015,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
       <c r="D74" s="11">
         <v>73</v>
       </c>
@@ -3532,10 +3032,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
       <c r="D75" s="11">
         <v>74</v>
       </c>
@@ -3549,10 +3049,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
       <c r="D76" s="11">
         <v>75</v>
       </c>
@@ -3566,12 +3066,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="23" t="s">
         <v>95</v>
       </c>
       <c r="D77" s="11">
@@ -3587,10 +3087,10 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="11">
         <v>77</v>
       </c>
@@ -3604,10 +3104,10 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="11">
         <v>78</v>
       </c>
@@ -3621,10 +3121,10 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
       <c r="D80" s="11">
         <v>79</v>
       </c>
@@ -3638,12 +3138,12 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="24"/>
+      <c r="B81" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D81" s="11">
@@ -3656,13 +3156,13 @@
         <v>9</v>
       </c>
       <c r="G81" s="15">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="11">
         <v>81</v>
       </c>
@@ -3673,13 +3173,13 @@
         <v>9</v>
       </c>
       <c r="G82" s="15">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
       <c r="D83" s="11">
         <v>82</v>
       </c>
@@ -3693,10 +3193,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
       <c r="D84" s="11">
         <v>83</v>
       </c>
@@ -3710,10 +3210,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
       <c r="D85" s="11">
         <v>84</v>
       </c>
@@ -3727,10 +3227,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
       <c r="D86" s="11">
         <v>85</v>
       </c>
@@ -3744,10 +3244,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
       <c r="D87" s="11">
         <v>86</v>
       </c>
@@ -3761,10 +3261,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
       <c r="D88" s="11">
         <v>87</v>
       </c>
@@ -3778,12 +3278,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="24"/>
+      <c r="B89" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D89" s="11">
@@ -3799,10 +3299,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
       <c r="D90" s="11">
         <v>89</v>
       </c>
@@ -3816,10 +3316,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
       <c r="D91" s="11">
         <v>90</v>
       </c>
@@ -3833,10 +3333,10 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
       <c r="D92" s="11">
         <v>91</v>
       </c>
@@ -3850,10 +3350,10 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="19"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
       <c r="D93" s="11">
         <v>92</v>
       </c>
@@ -3867,10 +3367,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="19"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
       <c r="D94" s="11">
         <v>93</v>
       </c>
@@ -3884,10 +3384,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="19"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
       <c r="D95" s="11">
         <v>94</v>
       </c>
@@ -3901,10 +3401,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
       <c r="D96" s="11">
         <v>95</v>
       </c>
@@ -3918,12 +3418,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="23"/>
+      <c r="B97" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D97" s="11">
@@ -3939,10 +3439,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="23"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
       <c r="D98" s="11">
         <v>97</v>
       </c>
@@ -3956,12 +3456,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="23"/>
+      <c r="B99" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D99" s="11">
@@ -3977,10 +3477,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
       <c r="D100" s="11">
         <v>99</v>
       </c>
@@ -3994,7 +3494,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="14" t="s">
         <v>120</v>
@@ -4015,7 +3515,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="15" t="s">
         <v>122</v>
@@ -4036,7 +3536,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="14" t="s">
         <v>124</v>
@@ -4057,7 +3557,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="12" t="s">
         <v>125</v>
@@ -4078,7 +3578,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="12" t="s">
         <v>10</v>
@@ -4099,7 +3599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="14" t="s">
         <v>13</v>
@@ -4120,7 +3620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="14" t="s">
         <v>128</v>
@@ -4141,12 +3641,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="21"/>
-      <c r="B108" s="21" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="30"/>
+      <c r="B108" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="30" t="s">
         <v>127</v>
       </c>
       <c r="D108" s="11">
@@ -4162,10 +3662,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="31"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
       <c r="D109" s="11">
         <v>108</v>
       </c>
@@ -4179,12 +3679,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="13"/>
-      <c r="B110" s="23" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="22"/>
+      <c r="B110" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="22">
         <v>485</v>
       </c>
       <c r="D110" s="11">
@@ -4200,10 +3700,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="13"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="13"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="22"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="22"/>
       <c r="D111" s="11">
         <v>110</v>
       </c>
@@ -4217,7 +3717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="12" t="s">
         <v>138</v>
@@ -4238,7 +3738,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="12" t="s">
         <v>142</v>
@@ -4259,7 +3759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="12" t="s">
         <v>144</v>
@@ -4280,7 +3780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="12" t="s">
         <v>146</v>
@@ -4301,7 +3801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="12" t="s">
         <v>149</v>
@@ -4322,7 +3822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="12" t="s">
         <v>150</v>
@@ -4343,7 +3843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="13" t="s">
         <v>151</v>
@@ -4364,12 +3864,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="21"/>
-      <c r="B119" s="24" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="30"/>
+      <c r="B119" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="23" t="s">
         <v>123</v>
       </c>
       <c r="D119" s="11">
@@ -4385,10 +3885,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="22"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="13"/>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="31"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="22"/>
       <c r="D120" s="11">
         <v>119</v>
       </c>
@@ -4402,7 +3902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
       <c r="B121" s="15" t="s">
         <v>155</v>
@@ -4410,10 +3910,10 @@
       <c r="C121" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D121" s="25">
+      <c r="D121" s="18">
         <v>120</v>
       </c>
-      <c r="E121" s="26" t="s">
+      <c r="E121" s="19" t="s">
         <v>155</v>
       </c>
       <c r="F121" s="15" t="s">
@@ -4423,7 +3923,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="12" t="s">
         <v>158</v>
@@ -4444,7 +3944,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="27"/>
       <c r="B123" s="27" t="s">
         <v>160</v>
@@ -4465,7 +3965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="28"/>
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
@@ -4482,7 +3982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="28"/>
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
@@ -4499,7 +3999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="28"/>
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
@@ -4516,7 +4016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="29"/>
       <c r="B127" s="29"/>
       <c r="C127" s="29"/>
@@ -4533,163 +4033,165 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="30"/>
-      <c r="B128" s="30" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="22"/>
+      <c r="B128" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C128" s="30" t="s">
-        <v>8</v>
+      <c r="C128" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="D128" s="11">
         <v>127</v>
       </c>
-      <c r="E128" s="30" t="s">
+      <c r="E128" s="20" t="s">
         <v>167</v>
       </c>
       <c r="F128" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="30"/>
-      <c r="B129" s="30"/>
-      <c r="C129" s="30"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="22"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
       <c r="D129" s="11">
         <v>128</v>
       </c>
-      <c r="E129" s="30" t="s">
+      <c r="E129" s="20" t="s">
         <v>168</v>
       </c>
       <c r="F129" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G129" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="30"/>
-      <c r="B130" s="30"/>
-      <c r="C130" s="30"/>
+      <c r="G129" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
       <c r="D130" s="11">
         <v>129</v>
       </c>
-      <c r="E130" s="30" t="s">
+      <c r="E130" s="20" t="s">
         <v>169</v>
       </c>
       <c r="F130" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G130" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="30"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="30"/>
+      <c r="G130" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
       <c r="D131" s="11">
         <v>130</v>
       </c>
-      <c r="E131" s="30" t="s">
+      <c r="E131" s="20" t="s">
         <v>170</v>
       </c>
       <c r="F131" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G131" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="30"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="30"/>
+      <c r="G131" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="22"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="22"/>
       <c r="D132" s="11">
         <v>131</v>
       </c>
-      <c r="E132" s="30" t="s">
+      <c r="E132" s="20" t="s">
         <v>171</v>
       </c>
       <c r="F132" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G132" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="30"/>
-      <c r="B133" s="30"/>
-      <c r="C133" s="30"/>
+      <c r="G132" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="22"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="22"/>
       <c r="D133" s="11">
         <v>132</v>
       </c>
-      <c r="E133" s="30" t="s">
+      <c r="E133" s="20" t="s">
         <v>172</v>
       </c>
       <c r="F133" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G133" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="30"/>
-      <c r="B134" s="30"/>
-      <c r="C134" s="30"/>
+      <c r="G133" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="22"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
       <c r="D134" s="11">
         <v>133</v>
       </c>
-      <c r="E134" s="30" t="s">
+      <c r="E134" s="20" t="s">
         <v>173</v>
       </c>
       <c r="F134" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G134" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="30"/>
-      <c r="B135" s="30"/>
-      <c r="C135" s="30"/>
+      <c r="G134" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="22"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="22"/>
       <c r="D135" s="11">
         <v>134</v>
       </c>
-      <c r="E135" s="30" t="s">
+      <c r="E135" s="20" t="s">
         <v>174</v>
       </c>
       <c r="F135" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G135" s="13" t="s">
-        <v>9</v>
+      <c r="G135" s="21" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A9:A24"/>
-    <mergeCell ref="A25:A40"/>
-    <mergeCell ref="A41:A56"/>
-    <mergeCell ref="A57:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A88"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="C128:C135"/>
+    <mergeCell ref="B128:B135"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C9:C24"/>
+    <mergeCell ref="C25:C40"/>
+    <mergeCell ref="C41:C56"/>
+    <mergeCell ref="C57:C72"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C123:C127"/>
     <mergeCell ref="A128:A135"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B9:B24"/>
@@ -4706,45 +4208,43 @@
     <mergeCell ref="B110:B111"/>
     <mergeCell ref="B119:B120"/>
     <mergeCell ref="B123:B127"/>
-    <mergeCell ref="B128:B135"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C9:C24"/>
-    <mergeCell ref="C25:C40"/>
-    <mergeCell ref="C41:C56"/>
-    <mergeCell ref="C57:C72"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C81:C88"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="C128:C135"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A24"/>
+    <mergeCell ref="A25:A40"/>
+    <mergeCell ref="A41:A56"/>
+    <mergeCell ref="A57:A72"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.3666666666667" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -4764,7 +4264,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>140</v>
       </c>
@@ -4784,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>165</v>
       </c>
@@ -4804,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>161</v>
       </c>
@@ -4824,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>162</v>
       </c>
@@ -4844,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>163</v>
       </c>
@@ -4864,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>164</v>
       </c>
@@ -4885,28 +4385,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26666666666667" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="35.45" customWidth="1"/>
+    <col min="3" max="3" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -4917,7 +4416,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4928,7 +4427,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4939,7 +4438,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4950,7 +4449,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4961,7 +4460,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4972,7 +4471,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4983,7 +4482,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4994,7 +4493,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5005,7 +4504,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5016,7 +4515,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5028,44 +4527,42 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.8166666666667" customWidth="1"/>
-    <col min="2" max="2" width="41.0916666666667" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="41.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5073,7 +4570,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5081,7 +4578,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5089,7 +4586,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -5097,7 +4594,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -5105,7 +4602,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -5113,7 +4610,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -5121,7 +4618,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -5129,7 +4626,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -5137,7 +4634,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -5145,7 +4642,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -5153,7 +4650,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -5161,7 +4658,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -5169,21 +4666,21 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B15" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config/project/board_120KW/BoardConfig.xlsx
+++ b/config/project/board_120KW/BoardConfig.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="216">
   <si>
     <t>组序号</t>
   </si>
@@ -1410,6 +1410,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1418,12 +1424,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1713,7 +1713,7 @@
   <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J129" sqref="J129"/>
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3642,11 +3642,11 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="30"/>
-      <c r="B108" s="30" t="s">
+      <c r="A108" s="27"/>
+      <c r="B108" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C108" s="30" t="s">
+      <c r="C108" s="27" t="s">
         <v>127</v>
       </c>
       <c r="D108" s="11">
@@ -3663,9 +3663,9 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="31"/>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
       <c r="D109" s="11">
         <v>108</v>
       </c>
@@ -3865,7 +3865,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="30"/>
+      <c r="A119" s="27"/>
       <c r="B119" s="34" t="s">
         <v>152</v>
       </c>
@@ -3886,7 +3886,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="31"/>
+      <c r="A120" s="28"/>
       <c r="B120" s="33"/>
       <c r="C120" s="22"/>
       <c r="D120" s="11">
@@ -3945,11 +3945,11 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="27"/>
-      <c r="B123" s="27" t="s">
+      <c r="A123" s="29"/>
+      <c r="B123" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="C123" s="27" t="s">
+      <c r="C123" s="29" t="s">
         <v>139</v>
       </c>
       <c r="D123" s="11">
@@ -3966,9 +3966,9 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="28"/>
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
+      <c r="A124" s="30"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
       <c r="D124" s="11">
         <v>123</v>
       </c>
@@ -3983,9 +3983,9 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="28"/>
-      <c r="B125" s="28"/>
-      <c r="C125" s="28"/>
+      <c r="A125" s="30"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
       <c r="D125" s="11">
         <v>124</v>
       </c>
@@ -4000,9 +4000,9 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="28"/>
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
+      <c r="A126" s="30"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
       <c r="D126" s="11">
         <v>125</v>
       </c>
@@ -4017,9 +4017,9 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
+      <c r="A127" s="31"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
       <c r="D127" s="11">
         <v>126</v>
       </c>
@@ -4034,11 +4034,11 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="22"/>
-      <c r="B128" s="22" t="s">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C128" s="22" t="s">
+      <c r="C128" s="12" t="s">
         <v>208</v>
       </c>
       <c r="D128" s="11">
@@ -4055,9 +4055,13 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="22"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="D129" s="11">
         <v>128</v>
       </c>
@@ -4072,9 +4076,13 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="22"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="D130" s="11">
         <v>129</v>
       </c>
@@ -4089,9 +4097,13 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="22"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="22"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="D131" s="11">
         <v>130</v>
       </c>
@@ -4106,9 +4118,13 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="22"/>
-      <c r="B132" s="22"/>
-      <c r="C132" s="22"/>
+      <c r="A132" s="12"/>
+      <c r="B132" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="D132" s="11">
         <v>131</v>
       </c>
@@ -4123,9 +4139,13 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="22"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="22"/>
+      <c r="A133" s="12"/>
+      <c r="B133" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="D133" s="11">
         <v>132</v>
       </c>
@@ -4140,9 +4160,13 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="22"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="D134" s="11">
         <v>133</v>
       </c>
@@ -4157,9 +4181,13 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="22"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="D135" s="11">
         <v>134</v>
       </c>
@@ -4174,9 +4202,38 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="C128:C135"/>
-    <mergeCell ref="B128:B135"/>
+  <mergeCells count="45">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A24"/>
+    <mergeCell ref="A25:A40"/>
+    <mergeCell ref="A41:A56"/>
+    <mergeCell ref="A57:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B9:B24"/>
+    <mergeCell ref="B25:B40"/>
+    <mergeCell ref="B41:B56"/>
+    <mergeCell ref="B57:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B119:B120"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C9:C24"/>
     <mergeCell ref="C25:C40"/>
@@ -4191,38 +4248,6 @@
     <mergeCell ref="C108:C109"/>
     <mergeCell ref="C110:C111"/>
     <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="A128:A135"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B9:B24"/>
-    <mergeCell ref="B25:B40"/>
-    <mergeCell ref="B41:B56"/>
-    <mergeCell ref="B57:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A88"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A9:A24"/>
-    <mergeCell ref="A25:A40"/>
-    <mergeCell ref="A41:A56"/>
-    <mergeCell ref="A57:A72"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
